--- a/docs/Obliczenia2.xlsx
+++ b/docs/Obliczenia2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glada\Documents\CustomProjects\DrunkMeter\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\DrunkMeter\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19152" windowHeight="7584" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19152" windowHeight="7584" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Wielkość alkoholu</t>
   </si>
@@ -152,6 +153,24 @@
   <si>
     <t>A=</t>
   </si>
+  <si>
+    <t>Alkohol we krwi</t>
+  </si>
+  <si>
+    <t>Spożyty alkohol</t>
+  </si>
+  <si>
+    <t>Wzrost</t>
+  </si>
+  <si>
+    <t>r=</t>
+  </si>
+  <si>
+    <t>Eliminacja na h</t>
+  </si>
+  <si>
+    <t>Czas wchłaniania:</t>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +225,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,7 +589,7 @@
   <dimension ref="A1:J365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10705,7 +10724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -11066,4 +11085,253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>700</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>(B2/100)*B1</f>
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B3*$G$1</f>
+        <v>66.36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <f>0.31608-0.004821*G3+0.004632*G4</f>
+        <v>0.74005500000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <f>B4/(G3*G5)</f>
+        <v>1.0549295422001623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f>$B$12-$G$6*A14</f>
+        <v>0.93492954220016233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B27" si="0">$B$12-$G$6*A15</f>
+        <v>0.81492954220016234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.69492954220016234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.57492954220016235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.45492954220016235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.33492954220016236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.21492954220016236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>9.4929542200162365E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>-2.5070457799837742E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>-0.14507045779983763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>-0.26507045779983751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>-0.38507045779983762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>-0.50507045779983772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>-0.62507045779983761</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Obliczenia2.xlsx
+++ b/docs/Obliczenia2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>Wielkość alkoholu</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Czas wchłaniania:</t>
+  </si>
+  <si>
+    <t>2 / 1 / 0,5</t>
   </si>
 </sst>
 </file>
@@ -11092,7 +11095,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11187,6 +11190,9 @@
       <c r="F9" t="s">
         <v>47</v>
       </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">

--- a/docs/Obliczenia2.xlsx
+++ b/docs/Obliczenia2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Wielkość alkoholu</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t>2 / 1 / 0,5</t>
+  </si>
+  <si>
+    <t>Odwrócenie wzoru:</t>
+  </si>
+  <si>
+    <t>PromCH = TOTAL - ELI * h</t>
+  </si>
+  <si>
+    <t>0=TOTAL-ELI*h</t>
+  </si>
+  <si>
+    <t>TOTAL = ELI * h</t>
+  </si>
+  <si>
+    <t>h = TOTAL / ELI</t>
   </si>
 </sst>
 </file>
@@ -11095,7 +11110,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11210,6 +11225,9 @@
       <c r="B13" t="s">
         <v>42</v>
       </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -11219,6 +11237,9 @@
         <f>$B$12-$G$6*A14</f>
         <v>0.93492954220016233</v>
       </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -11228,6 +11249,9 @@
         <f t="shared" ref="B15:B27" si="0">$B$12-$G$6*A15</f>
         <v>0.81492954220016234</v>
       </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -11237,8 +11261,11 @@
         <f t="shared" si="0"/>
         <v>0.69492954220016234</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -11246,8 +11273,11 @@
         <f t="shared" si="0"/>
         <v>0.57492954220016235</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -11256,7 +11286,7 @@
         <v>0.45492954220016235</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -11265,7 +11295,7 @@
         <v>0.33492954220016236</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -11274,7 +11304,7 @@
         <v>0.21492954220016236</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -11283,7 +11313,7 @@
         <v>9.4929542200162365E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
@@ -11292,7 +11322,7 @@
         <v>-2.5070457799837742E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10</v>
       </c>
@@ -11301,7 +11331,7 @@
         <v>-0.14507045779983763</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11</v>
       </c>
@@ -11310,7 +11340,7 @@
         <v>-0.26507045779983751</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
@@ -11319,7 +11349,7 @@
         <v>-0.38507045779983762</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>13</v>
       </c>
@@ -11328,7 +11358,7 @@
         <v>-0.50507045779983772</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>14</v>
       </c>
